--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il23a-Il23r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il23a-Il23r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.568603666666667</v>
+        <v>1.270105666666667</v>
       </c>
       <c r="H2">
-        <v>10.705811</v>
+        <v>3.810317</v>
       </c>
       <c r="I2">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="J2">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02016266666666667</v>
+        <v>0.04298466666666667</v>
       </c>
       <c r="N2">
-        <v>0.060488</v>
+        <v>0.128954</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.07195256619644444</v>
+        <v>0.05459506871311112</v>
       </c>
       <c r="R2">
-        <v>0.647573095768</v>
+        <v>0.491355618418</v>
       </c>
       <c r="S2">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="T2">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,10 +608,10 @@
         <v>4.961635</v>
       </c>
       <c r="I3">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="J3">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02016266666666667</v>
+        <v>0.04298466666666667</v>
       </c>
       <c r="N3">
-        <v>0.060488</v>
+        <v>0.128954</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03334659754222222</v>
+        <v>0.07109140886555557</v>
       </c>
       <c r="R3">
-        <v>0.30011937788</v>
+        <v>0.6398226797900001</v>
       </c>
       <c r="S3">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="T3">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5851769999999999</v>
+        <v>1.447887666666667</v>
       </c>
       <c r="H4">
-        <v>1.755531</v>
+        <v>4.343663</v>
       </c>
       <c r="I4">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="J4">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02016266666666667</v>
+        <v>0.04298466666666667</v>
       </c>
       <c r="N4">
-        <v>0.060488</v>
+        <v>0.128954</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.011798728792</v>
+        <v>0.06223696872244445</v>
       </c>
       <c r="R4">
-        <v>0.106188559128</v>
+        <v>0.5601327185020001</v>
       </c>
       <c r="S4">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="T4">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +711,31 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.554137</v>
+        <v>0.324919</v>
       </c>
       <c r="H5">
-        <v>4.662411</v>
+        <v>0.974757</v>
       </c>
       <c r="I5">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467276</v>
       </c>
       <c r="J5">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467275</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02016266666666667</v>
+        <v>0.04298466666666667</v>
       </c>
       <c r="N5">
-        <v>0.060488</v>
+        <v>0.128954</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +756,78 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.03133554628533333</v>
+        <v>0.01396653490866667</v>
       </c>
       <c r="R5">
-        <v>0.282019916568</v>
+        <v>0.125698814178</v>
       </c>
       <c r="S5">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467276</v>
       </c>
       <c r="T5">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.065540666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.196622</v>
+      </c>
+      <c r="I6">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="J6">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04298466666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.128954</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.04580191037644445</v>
+      </c>
+      <c r="R6">
+        <v>0.4122171933880001</v>
+      </c>
+      <c r="S6">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="T6">
+        <v>0.1849148556423401</v>
       </c>
     </row>
   </sheetData>
